--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testTool\testsuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\selenium-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ECB797-31AE-4332-B893-E2AEC3383BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1EE6A-6BDB-4922-BF77-0975C0992FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="23280" windowHeight="15600" xr2:uid="{A1551E7B-7FB0-49EB-8D2C-45F68FAC6D91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{A1551E7B-7FB0-49EB-8D2C-45F68FAC6D91}"/>
   </bookViews>
   <sheets>
     <sheet name="ChosenSelect" sheetId="26" r:id="rId1"/>
     <sheet name="InputUDFAmount" sheetId="27" r:id="rId2"/>
     <sheet name="InputUDFText" sheetId="28" r:id="rId3"/>
     <sheet name="LoginAs" sheetId="12" r:id="rId4"/>
+    <sheet name="Logout" sheetId="29" r:id="rId5"/>
+    <sheet name="SelectRole" sheetId="30" r:id="rId6"/>
+    <sheet name="LeftMenu" sheetId="32" r:id="rId7"/>
+    <sheet name="TopMenu" sheetId="33" r:id="rId8"/>
+    <sheet name="AppFromToDo" sheetId="35" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>Action</t>
   </si>
@@ -91,9 +95,6 @@
     <t>LoginAs</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>ChosenSelect</t>
   </si>
   <si>
@@ -124,17 +125,74 @@
     <t>//input[@value='${1}']/preceding-sibling::select[contains(@name,'.extraValue1')]/following-sibling::div/div/ul/li[text()='${2}']</t>
   </si>
   <si>
-    <t>//select[@name='${1}']/following-sibling::div//ul/li[count(//select[@name='${1}']/option[@value='${2}']/preceding::option) + 1]</t>
-  </si>
-  <si>
     <t>//select[@name='${1}']/following-sibling::div/a</t>
+  </si>
+  <si>
+    <t>//a[@id='menuLogout']</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>SelectRole</t>
+  </si>
+  <si>
+    <t>InputSelect</t>
+  </si>
+  <si>
+    <t>//select[@name='rolesAvailable']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Add&gt;&gt;')]/ancestor::a</t>
+  </si>
+  <si>
+    <t>//select[@name='${1}']/following-sibling::div//ul/li[count(//select[@name='${1}']/option[@value='${2}']/preceding-sibling::option) + 1]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>LeftMenu</t>
+  </si>
+  <si>
+    <t>TopMenu</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='${2}']</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='${1}']</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='${1}']/parent::a</t>
+  </si>
+  <si>
+    <t>//input[@name='appNo']</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Filter By']/parent::a</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'${1}')]</t>
+  </si>
+  <si>
+    <t>AppFromToDo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +219,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +246,13 @@
         <bgColor indexed="29"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -251,11 +321,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,6 +375,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -308,14 +401,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D790CE-4092-423A-81BC-4BDB89FACF28}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,30 +744,30 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -697,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
@@ -712,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="4" t="s">
@@ -720,13 +817,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -761,30 +858,30 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -811,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="8">
@@ -826,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8">
@@ -841,23 +938,23 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -876,7 +973,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,30 +989,30 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -942,23 +1039,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -977,7 +1074,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,30 +1090,30 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1046,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
@@ -1063,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
@@ -1088,16 +1185,14 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1115,13 +1210,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1129,7 +1224,7 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,4 +1233,569 @@
     <ignoredError sqref="C1:E1 B7 B3:E3 A4:E4 A3 B5:C5 E5 B6:C6 E6 D7:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8575F451-8AB4-4EB2-AAF6-D12780EED6F6}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE62D377-BD93-435E-A333-A98028DFD9D2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F501BB3B-E178-4501-B598-08BB462E08DF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA82A5-6659-445F-9EF9-68CA5E1CC8CC}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0087EC0-83C8-498C-A923-36A4F07B9896}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5:A7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\selenium-example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B596E88-AE58-4A89-90D0-AFB1DA7B667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ChosenSelect" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="InputUDFAmount" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="InputUDFText" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="LoginAs" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Logout" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="SelectRole" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="LeftMenu" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="TopMenu" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="AppFromToDo" sheetId="9" r:id="rId12"/>
+    <sheet name="ChosenSelect" sheetId="1" r:id="rId1"/>
+    <sheet name="InputUDFAmount" sheetId="2" r:id="rId2"/>
+    <sheet name="InputUDFText" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginAs" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="5" r:id="rId5"/>
+    <sheet name="SelectRole" sheetId="6" r:id="rId6"/>
+    <sheet name="LeftMenu" sheetId="7" r:id="rId7"/>
+    <sheet name="TopMenu" sheetId="8" r:id="rId8"/>
+    <sheet name="AppFromToDo" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miq+oMY5MhHa4kMBCScHgDwTZEPwA=="/>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -56,13 +65,7 @@
     <t>selector</t>
   </si>
   <si>
-    <t>//select[@name='${1}']/following-sibling::div/a</t>
-  </si>
-  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>//select[@name='${1}']/following-sibling::div//ul/li[count(//select[@name='${1}']/option[@value='${2}']/preceding-sibling::option) + 1]</t>
   </si>
   <si>
     <t>100</t>
@@ -175,46 +178,60 @@
   <si>
     <t>//a[contains(text(),'${1}')]</t>
   </si>
+  <si>
+    <t>//select[@name='${name}']/following-sibling::div/a</t>
+  </si>
+  <si>
+    <t>//select[@name='${name}']/following-sibling::div//ul/li[count(//select[@name='${name}']/option[@value='${value}']/preceding-sibling::option) + 1]</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -225,7 +242,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,7 +264,13 @@
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -261,16 +284,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -280,6 +308,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -288,51 +317,73 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -344,206 +395,170 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -733,112 +748,117 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="116.29"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="116.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1827,144 +1847,143 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="107.29"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="107.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="6" spans="1:5" ht="45" customHeight="1">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="37">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="B7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="38"/>
     </row>
-    <row r="5" ht="45.0" customHeight="1">
-      <c r="A5" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="45.0" customHeight="1">
-      <c r="A6" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="20">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="19"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2948,121 +2967,117 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="81.43"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="81.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="D6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="38"/>
     </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4054,207 +4069,205 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E989"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="60.71"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E6" s="38"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="37">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
+      <c r="B10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="26" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>11</v>
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="28"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
     </row>
-    <row r="7">
-      <c r="A7" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5230,6 +5243,12 @@
     <row r="989" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="E5:E6"/>
@@ -5237,130 +5256,120 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="13.71"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:26" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:26">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
-    <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+    <row r="6" spans="1:26">
+      <c r="A6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6349,128 +6358,124 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="60.71"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -7462,102 +7467,98 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="19.29"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>11</v>
+      <c r="D5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -8546,119 +8547,117 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:E6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="20.86"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E6" s="24" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -9647,147 +9646,143 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="60.71"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E7" s="24" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -10779,9 +10774,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>